--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1689576.769864534</v>
+        <v>-1692236.122836547</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>35.10080638294954</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>208.6614485640434</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>116.2265708018211</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>135.3571391402058</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>22.68456176090999</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>77.21619667811729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>330.6064749294303</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>200.8598485970366</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>24.89454717107151</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>4.680122792402171</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.0648965483574</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>345.0942361518138</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96.50675189249552</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>104.2590660175761</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>78.68827782034096</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>162.4077002759646</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>166.8892976061578</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>219.245038753228</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>111.5056986361882</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1427.752600859947</v>
+        <v>897.1297469198867</v>
       </c>
       <c r="C2" t="n">
-        <v>1058.790083919535</v>
+        <v>861.6743869371094</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.790083919535</v>
+        <v>503.4086883303589</v>
       </c>
       <c r="E2" t="n">
-        <v>673.0018313212909</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>262.0159265316834</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2444.938751832659</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2191.357691096839</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2191.357691096839</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W2" t="n">
-        <v>2191.357691096839</v>
+        <v>2047.3346772209</v>
       </c>
       <c r="X2" t="n">
-        <v>1817.891932835759</v>
+        <v>1673.86891895982</v>
       </c>
       <c r="Y2" t="n">
-        <v>1427.752600859947</v>
+        <v>1283.729586984008</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4401,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>1590.995858314207</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2539.425629651761</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2316.447148846496</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>2027.328811350334</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>1772.644323144447</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.327782578335</v>
+        <v>1772.644323144447</v>
       </c>
       <c r="X4" t="n">
-        <v>1347.327782578335</v>
+        <v>1772.644323144447</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1772.644323144447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>824.6074030911695</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C5" t="n">
-        <v>455.6448861507579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6448861507579</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251364</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W5" t="n">
-        <v>1974.812333392183</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.346575131103</v>
+        <v>1416.181083656473</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.207243155291</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>768.6303371471284</v>
+        <v>685.1760210978774</v>
       </c>
       <c r="C7" t="n">
-        <v>768.6303371471284</v>
+        <v>516.2398381699705</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576348</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1508.716706346573</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1285.738225541308</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>996.6198880451458</v>
+        <v>1631.718723314495</v>
       </c>
       <c r="V7" t="n">
-        <v>996.6198880451458</v>
+        <v>1377.034235108608</v>
       </c>
       <c r="W7" t="n">
-        <v>996.6198880451458</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="X7" t="n">
-        <v>768.6303371471284</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.6303371471284</v>
+        <v>866.8244859281172</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.5673701373257</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>785.680167749271</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>616.7439848213642</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>466.6273454090284</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>318.7142518266353</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>171.8243043287249</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1416.110762621058</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1188.121211723041</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>967.3286325795108</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,22 +5033,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5060,19 +5060,19 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5130,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1031.260321675051</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>862.3241387471444</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>712.2074993348086</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>564.2944057524155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782971</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038358</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648821</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1433.701365648821</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1212.908786505291</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2282.914901483327</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2063.313436506268</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1774.238209850466</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1519.553721644579</v>
       </c>
       <c r="W16" t="n">
-        <v>1332.172021309389</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,13 +5601,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>435.4253327224012</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>288.5353852244908</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6616,31 +6616,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,10 +6947,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,13 +7011,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7075,25 +7075,25 @@
         <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7108,7 +7108,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7160,25 +7160,25 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,10 +7360,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580108</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,22 +7588,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>60.35797727397573</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>240.4465442417438</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>240.4465442417437</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>330.172085388058</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>202.8862542089106</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>66.73277020259029</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.61858572567999</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>119.6337007304332</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23941,13 +23941,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>32.89260457059996</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>28.78901421003567</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99467.00901045145</v>
+        <v>99467.00901045151</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
         <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.7179936318</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45381.81939495109</v>
+        <v>45381.81939495112</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309559</v>
@@ -26427,37 +26427,37 @@
         <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744268</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744319</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744235</v>
       </c>
       <c r="K4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483773</v>
       </c>
       <c r="L4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
-        <v>16718.11565483777</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="N4" t="n">
         <v>16718.11565483777</v>
       </c>
       <c r="O4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1153604.366400264</v>
+        <v>-1153999.187341417</v>
       </c>
       <c r="C6" t="n">
         <v>-105303.6439371853</v>
       </c>
       <c r="D6" t="n">
-        <v>-265319.1066851843</v>
+        <v>-265319.1066851844</v>
       </c>
       <c r="E6" t="n">
-        <v>-314190.2580695059</v>
+        <v>-314224.9959949414</v>
       </c>
       <c r="F6" t="n">
-        <v>11222.20373784949</v>
+        <v>11187.46581241384</v>
       </c>
       <c r="G6" t="n">
-        <v>11222.20373784953</v>
+        <v>11187.46581241378</v>
       </c>
       <c r="H6" t="n">
-        <v>11222.20373784946</v>
+        <v>11187.46581241382</v>
       </c>
       <c r="I6" t="n">
-        <v>11222.20373784946</v>
+        <v>11187.46581241381</v>
       </c>
       <c r="J6" t="n">
-        <v>-156382.974072133</v>
+        <v>-156417.7119975688</v>
       </c>
       <c r="K6" t="n">
-        <v>-16153.68402274256</v>
+        <v>-16153.68402274257</v>
       </c>
       <c r="L6" t="n">
-        <v>-45019.93603730154</v>
+        <v>-45019.93603730156</v>
       </c>
       <c r="M6" t="n">
-        <v>-81780.99396462258</v>
+        <v>-81780.9939646225</v>
       </c>
       <c r="N6" t="n">
-        <v>3274.033970889373</v>
+        <v>3274.033970889315</v>
       </c>
       <c r="O6" t="n">
-        <v>3274.033970889359</v>
+        <v>3274.033970889344</v>
       </c>
       <c r="P6" t="n">
         <v>-16153.68402274247</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>90.43161417841267</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>213.8838295772073</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>171.9778986008275</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.3684566739775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>18.63449378798271</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>185.378090059017</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>169.767913190666</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>281.5470313287984</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.66894511512317</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>61.78180958989759</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>61.76674224145214</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30232,13 +30232,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>225.4828684302374</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32321,16 +32321,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>395.7826592700988</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>490.1260733652761</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065827</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>538.1269048795938</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295474</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>82.88662398579301</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
